--- a/data_2021ppp_ESP.xlsx
+++ b/data_2021ppp_ESP.xlsx
@@ -34,10 +34,10 @@
     <t>2025e</t>
   </si>
   <si>
-    <t>2026f</t>
-  </si>
-  <si>
-    <t>2027f</t>
+    <t>2026p</t>
+  </si>
+  <si>
+    <t>2027p</t>
   </si>
   <si>
     <t>Argentina</t>
